--- a/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(Including Fixed Salary) IDFC-TW.xlsx
+++ b/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(Including Fixed Salary) IDFC-TW.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,47 +586,37 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EMPLOYEE_ID</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>EMPLOYEE_ID</t>
+          <t>MANAGER_ID</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>MANAGER_ID</t>
+          <t>DESIGNATION</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>DESIGNATION</t>
+          <t>STAFF</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>STAFF</t>
+          <t>EMPLOYEE_STATUS</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>EMPLOYEE_STATUS</t>
+          <t>PROCESS</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>PROCESS</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
           <t>DEPARTMENT</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_BIRTH</t>
         </is>
       </c>
     </row>
@@ -676,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>817596.6799999999</v>
+        <v>817596.6800000001</v>
       </c>
       <c r="N2" t="n">
         <v>1714639.16</v>
@@ -729,44 +715,40 @@
       <c r="AD2" t="n">
         <v>0</v>
       </c>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>P262</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>P262</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>34843</v>
       </c>
     </row>
     <row r="3">
@@ -853,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.96000000000001</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="AB3" t="n">
         <v>2.95</v>
@@ -864,44 +846,40 @@
       <c r="AD3" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>P170</t>
+        </is>
+      </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>P170</t>
+          <t>P226</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>P226</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>32261</v>
       </c>
     </row>
     <row r="4">
@@ -997,44 +975,40 @@
         <v>500</v>
       </c>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>P170</t>
+        </is>
+      </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>P170</t>
+          <t>P226</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>P226</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>32261</v>
       </c>
     </row>
     <row r="5">
@@ -1079,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>569630.3300000001</v>
+        <v>569630.33</v>
       </c>
       <c r="N5" t="n">
         <v>550621.3100000001</v>
@@ -1132,44 +1106,40 @@
       <c r="AD5" t="n">
         <v>0</v>
       </c>
-      <c r="AE5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>P138</t>
+        </is>
+      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>P138</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>32676</v>
       </c>
     </row>
     <row r="6">
@@ -1267,40 +1237,36 @@
       <c r="AD6" t="n">
         <v>0</v>
       </c>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>P276</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>36482</v>
       </c>
     </row>
     <row r="7">
@@ -1398,40 +1364,36 @@
       <c r="AD7" t="n">
         <v>0</v>
       </c>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>P276</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <v>36482</v>
       </c>
     </row>
     <row r="8">
@@ -1529,44 +1491,40 @@
       <c r="AD8" t="n">
         <v>0</v>
       </c>
-      <c r="AE8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>P243</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>P243</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM8" s="2" t="n">
-        <v>31287</v>
       </c>
     </row>
     <row r="9">
@@ -1664,44 +1622,40 @@
       <c r="AD9" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>P243</t>
+        </is>
+      </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>P243</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM9" s="2" t="n">
-        <v>31287</v>
       </c>
     </row>
     <row r="10">
@@ -1797,44 +1751,40 @@
         <v>700</v>
       </c>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>P243</t>
+        </is>
+      </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>P243</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM10" s="2" t="n">
-        <v>31287</v>
       </c>
     </row>
     <row r="11">
@@ -1879,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>807794.8499999999</v>
+        <v>807794.85</v>
       </c>
       <c r="N11" t="n">
         <v>1081951.09</v>
@@ -1921,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>63.76000000000001</v>
+        <v>63.76</v>
       </c>
       <c r="AB11" t="n">
         <v>15.23</v>
@@ -1932,44 +1882,40 @@
       <c r="AD11" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>P111</t>
+        </is>
+      </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>P111</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>33792</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +1963,7 @@
         <v>755485.17</v>
       </c>
       <c r="N12" t="n">
-        <v>923464.0700000001</v>
+        <v>923464.0699999999</v>
       </c>
       <c r="O12" t="n">
         <v>156596.3</v>
@@ -2067,44 +2013,40 @@
       <c r="AD12" t="n">
         <v>0</v>
       </c>
-      <c r="AE12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>P124</t>
+        </is>
+      </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>P124</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM12" s="2" t="n">
-        <v>31321</v>
       </c>
     </row>
     <row r="13">
@@ -2202,44 +2144,40 @@
       <c r="AD13" t="n">
         <v>0</v>
       </c>
-      <c r="AE13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>P124</t>
+        </is>
+      </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>P124</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM13" s="2" t="n">
-        <v>31321</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2228,7 @@
         <v>548106.33</v>
       </c>
       <c r="O14" t="n">
-        <v>343822.6899999999</v>
+        <v>343822.69</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -2337,44 +2275,40 @@
       <c r="AD14" t="n">
         <v>0</v>
       </c>
-      <c r="AE14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>P271</t>
+        </is>
+      </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>P271</t>
+          <t>O239</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>O239</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FULLERTON</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>FULLERTON</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
           <t>RECOVERY</t>
         </is>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>23804</v>
       </c>
     </row>
     <row r="15">
@@ -2472,44 +2406,40 @@
       <c r="AD15" t="n">
         <v>0</v>
       </c>
-      <c r="AE15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>P112</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>32920</v>
       </c>
     </row>
     <row r="16">
@@ -2607,44 +2537,40 @@
       <c r="AD16" t="n">
         <v>0</v>
       </c>
-      <c r="AE16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>P112</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM16" s="2" t="n">
-        <v>32920</v>
       </c>
     </row>
     <row r="17">
@@ -2662,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>861911.7599999999</v>
+        <v>861911.76</v>
       </c>
       <c r="E17" t="n">
         <v>21</v>
@@ -2742,44 +2668,40 @@
       <c r="AD17" t="n">
         <v>0</v>
       </c>
-      <c r="AE17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>P274</t>
+        </is>
+      </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>P274</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM17" s="2" t="n">
-        <v>34771</v>
       </c>
     </row>
     <row r="18">
@@ -2797,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>2452666.609999999</v>
+        <v>2452666.61</v>
       </c>
       <c r="E18" t="n">
         <v>51</v>
@@ -2877,44 +2799,40 @@
       <c r="AD18" t="n">
         <v>0</v>
       </c>
-      <c r="AE18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>P257</t>
+        </is>
+      </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>P257</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM18" s="2" t="n">
-        <v>32031</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2880,7 @@
         <v>407268.71</v>
       </c>
       <c r="N19" t="n">
-        <v>962429.4400000001</v>
+        <v>962429.4399999999</v>
       </c>
       <c r="O19" t="n">
         <v>79369.64</v>
@@ -3012,44 +2930,40 @@
       <c r="AD19" t="n">
         <v>0</v>
       </c>
-      <c r="AE19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>P117</t>
+        </is>
+      </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>P117</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM19" s="2" t="n">
-        <v>32793</v>
       </c>
     </row>
     <row r="20">
@@ -3145,44 +3059,40 @@
         <v>300</v>
       </c>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>P117</t>
+        </is>
+      </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>P117</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM20" s="2" t="n">
-        <v>32793</v>
       </c>
     </row>
     <row r="21">
@@ -3200,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>2168678.939999999</v>
+        <v>2168678.94</v>
       </c>
       <c r="E21" t="n">
         <v>35</v>
@@ -3227,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>775266.5299999998</v>
+        <v>775266.53</v>
       </c>
       <c r="N21" t="n">
-        <v>921923.6299999999</v>
+        <v>921923.63</v>
       </c>
       <c r="O21" t="n">
         <v>471488.78</v>
@@ -3280,44 +3190,40 @@
       <c r="AD21" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>P273</t>
+        </is>
+      </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>P273</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM21" s="2" t="n">
-        <v>34940</v>
       </c>
     </row>
     <row r="22">
@@ -3415,44 +3321,40 @@
       <c r="AD22" t="n">
         <v>0</v>
       </c>
-      <c r="AE22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>P273</t>
+        </is>
+      </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>P273</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM22" s="2" t="n">
-        <v>34940</v>
       </c>
     </row>
     <row r="23">
@@ -3470,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>945931.2500000001</v>
+        <v>945931.25</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
@@ -3503,7 +3405,7 @@
         <v>827219.27</v>
       </c>
       <c r="O23" t="n">
-        <v>79374.01999999999</v>
+        <v>79374.02</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -3550,44 +3452,40 @@
       <c r="AD23" t="n">
         <v>0</v>
       </c>
-      <c r="AE23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>P241</t>
+        </is>
+      </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>P241</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM23" s="2" t="n">
-        <v>32396</v>
       </c>
     </row>
     <row r="24">
@@ -3683,44 +3581,40 @@
         <v>200</v>
       </c>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>P241</t>
+        </is>
+      </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>P241</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM24" s="2" t="n">
-        <v>32396</v>
       </c>
     </row>
     <row r="25">
@@ -3731,26 +3625,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NO FOS</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>58247117.43000009</v>
+        <v>2085664.49</v>
       </c>
       <c r="E25" t="n">
-        <v>1339</v>
+        <v>18</v>
       </c>
       <c r="F25" t="n">
-        <v>226</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>916</v>
+        <v>11</v>
       </c>
       <c r="H25" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -3765,13 +3659,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>10747672.65999999</v>
+        <v>194734.88</v>
       </c>
       <c r="N25" t="n">
-        <v>38689202.68000001</v>
+        <v>1737887.87</v>
       </c>
       <c r="O25" t="n">
-        <v>8810242.089999998</v>
+        <v>153041.74</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3786,13 +3680,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>18.45</v>
+        <v>9.34</v>
       </c>
       <c r="U25" t="n">
-        <v>66.42</v>
+        <v>83.33</v>
       </c>
       <c r="V25" t="n">
-        <v>15.13</v>
+        <v>7.34</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -3807,24 +3701,52 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>81.55</v>
+        <v>90.67</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.13</v>
+        <v>7.34</v>
       </c>
       <c r="AC25" t="n">
-        <v>133900</v>
-      </c>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
+        <v>1800</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>P255</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>O239</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>FULLERTON</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3834,26 +3756,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO FOS</t>
+          <t>SHASHI KANT</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>129164.98</v>
+        <v>3728380.54</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -3868,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>879408.91</v>
       </c>
       <c r="N26" t="n">
-        <v>129164.98</v>
+        <v>2287505.77</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>561465.86</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -3889,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>23.59</v>
       </c>
       <c r="U26" t="n">
-        <v>100</v>
+        <v>61.35</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>15.06</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -3910,24 +3832,52 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>100</v>
+        <v>76.41</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>15.06</v>
       </c>
       <c r="AC26" t="n">
-        <v>400</v>
-      </c>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
+        <v>8500</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>P248</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3937,23 +3887,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO FOS</t>
+          <t>SHASHI KANT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>175043.58</v>
+        <v>12936.16</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3974,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>175043.58</v>
+        <v>12936.16</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -4019,18 +3969,44 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>P248</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4040,100 +4016,128 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NO FOS</t>
+          <t>SOURAV KUMAR</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1983018.889999999</v>
+        <v>1664678.47</v>
       </c>
       <c r="E28" t="n">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="F28" t="n">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1354095.79</v>
+        <v>879929.5</v>
       </c>
       <c r="N28" t="n">
-        <v>429507.2899999999</v>
+        <v>314881.9</v>
       </c>
       <c r="O28" t="n">
-        <v>15696.1</v>
+        <v>469867.07</v>
       </c>
       <c r="P28" t="n">
-        <v>31159.49</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>3401.2</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>149159.02</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>68.28</v>
+        <v>52.86</v>
       </c>
       <c r="U28" t="n">
-        <v>21.66</v>
+        <v>18.92</v>
       </c>
       <c r="V28" t="n">
-        <v>0.79</v>
+        <v>28.23</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>7.52</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>31.54</v>
+        <v>47.15</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.879999999999999</v>
+        <v>28.23</v>
       </c>
       <c r="AC28" t="n">
-        <v>24100</v>
-      </c>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
+        <v>2500</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>P261</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4143,27 +4147,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SHAKEEL</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>2085664.49</v>
+        <v>2678433.72</v>
       </c>
       <c r="E29" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F29" t="n">
+        <v>22</v>
+      </c>
+      <c r="G29" t="n">
+        <v>16</v>
+      </c>
+      <c r="H29" t="n">
         <v>4</v>
       </c>
-      <c r="G29" t="n">
-        <v>11</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -4177,13 +4181,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>194734.88</v>
+        <v>1550953.93</v>
       </c>
       <c r="N29" t="n">
-        <v>1737887.87</v>
+        <v>876614.04</v>
       </c>
       <c r="O29" t="n">
-        <v>153041.74</v>
+        <v>250865.75</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -4198,13 +4202,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>9.34</v>
+        <v>57.91</v>
       </c>
       <c r="U29" t="n">
-        <v>83.33</v>
+        <v>32.73</v>
       </c>
       <c r="V29" t="n">
-        <v>7.34</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -4219,55 +4223,51 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>90.67</v>
+        <v>42.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.34</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
       </c>
-      <c r="AE29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>P084</t>
+        </is>
+      </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>P255</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>O239</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>FULLERTON</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="AM29" s="2" t="n">
-        <v>32152</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -4278,26 +4278,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SHASHI KANT</t>
+          <t>SUDHAKAR</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>3728380.54</v>
+        <v>3166162.04</v>
       </c>
       <c r="E30" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F30" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -4312,13 +4312,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>879408.9099999999</v>
+        <v>1865548.8</v>
       </c>
       <c r="N30" t="n">
-        <v>2287505.77</v>
+        <v>893071.02</v>
       </c>
       <c r="O30" t="n">
-        <v>561465.86</v>
+        <v>407542.22</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -4333,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>23.59</v>
+        <v>58.92</v>
       </c>
       <c r="U30" t="n">
-        <v>61.35</v>
+        <v>28.21</v>
       </c>
       <c r="V30" t="n">
-        <v>15.06</v>
+        <v>12.87</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -4354,55 +4354,51 @@
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>76.41</v>
+        <v>41.08</v>
       </c>
       <c r="AB30" t="n">
-        <v>15.06</v>
+        <v>12.87</v>
       </c>
       <c r="AC30" t="n">
-        <v>8500</v>
+        <v>5600</v>
       </c>
       <c r="AD30" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AE30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>P126</t>
+        </is>
+      </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>P248</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-      <c r="AM30" s="2" t="n">
-        <v>29320</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -4413,27 +4409,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SHASHI KANT</t>
+          <t>VIJAY KUMAR</t>
         </is>
       </c>
       <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2477295.93</v>
+      </c>
+      <c r="E31" t="n">
+        <v>48</v>
+      </c>
+      <c r="F31" t="n">
+        <v>19</v>
+      </c>
+      <c r="G31" t="n">
+        <v>25</v>
+      </c>
+      <c r="H31" t="n">
         <v>4</v>
       </c>
-      <c r="D31" t="n">
-        <v>12936.16</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
@@ -4447,13 +4443,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1017726.43</v>
       </c>
       <c r="N31" t="n">
-        <v>12936.16</v>
+        <v>1309875.75</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>149693.75</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -4468,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>41.08</v>
       </c>
       <c r="U31" t="n">
-        <v>100</v>
+        <v>52.88</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -4489,593 +4485,51 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>100</v>
+        <v>58.92</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="AC31" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
+        <v>4800</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>P270</t>
+        </is>
+      </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>P248</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-      <c r="AM31" s="2" t="n">
-        <v>29320</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>IDFC-TW</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>SOURAV KUMAR</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1664678.47</v>
-      </c>
-      <c r="E32" t="n">
-        <v>25</v>
-      </c>
-      <c r="F32" t="n">
-        <v>12</v>
-      </c>
-      <c r="G32" t="n">
-        <v>7</v>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>879929.5</v>
-      </c>
-      <c r="N32" t="n">
-        <v>314881.9</v>
-      </c>
-      <c r="O32" t="n">
-        <v>469867.07</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>52.86</v>
-      </c>
-      <c r="U32" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="V32" t="n">
-        <v>28.23</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>47.15000000000001</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>28.23</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>P261</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM32" s="2" t="n">
-        <v>35109</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>IDFC-TW</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>SUBHASH CHAND</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2678433.719999999</v>
-      </c>
-      <c r="E33" t="n">
-        <v>42</v>
-      </c>
-      <c r="F33" t="n">
-        <v>22</v>
-      </c>
-      <c r="G33" t="n">
-        <v>16</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1550953.93</v>
-      </c>
-      <c r="N33" t="n">
-        <v>876614.0400000002</v>
-      </c>
-      <c r="O33" t="n">
-        <v>250865.75</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>57.91</v>
-      </c>
-      <c r="U33" t="n">
-        <v>32.73</v>
-      </c>
-      <c r="V33" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>42.09999999999999</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>4200</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>P084</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="AM33" s="2" t="n">
-        <v>32143</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>IDFC-TW</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>SUDHAKAR</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>3166162.04</v>
-      </c>
-      <c r="E34" t="n">
-        <v>56</v>
-      </c>
-      <c r="F34" t="n">
-        <v>26</v>
-      </c>
-      <c r="G34" t="n">
-        <v>21</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1865548.8</v>
-      </c>
-      <c r="N34" t="n">
-        <v>893071.0199999999</v>
-      </c>
-      <c r="O34" t="n">
-        <v>407542.22</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>58.92</v>
-      </c>
-      <c r="U34" t="n">
-        <v>28.21</v>
-      </c>
-      <c r="V34" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>41.08</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>5600</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>P126</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="AM34" s="2" t="n">
-        <v>32587</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>IDFC-TW</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>VIJAY KUMAR</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2477295.93</v>
-      </c>
-      <c r="E35" t="n">
-        <v>48</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19</v>
-      </c>
-      <c r="G35" t="n">
-        <v>25</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1017726.43</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1309875.75</v>
-      </c>
-      <c r="O35" t="n">
-        <v>149693.75</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>41.08</v>
-      </c>
-      <c r="U35" t="n">
-        <v>52.88</v>
-      </c>
-      <c r="V35" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>58.92</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>P270</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="AM35" s="2" t="n">
-        <v>27824</v>
       </c>
     </row>
   </sheetData>

--- a/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(Including Fixed Salary) IDFC-TW.xlsx
+++ b/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(Including Fixed Salary) IDFC-TW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,35 +586,40 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>EMPLOYEE_ID</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>MANAGER_ID</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>DESIGNATION</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>STAFF</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>EMPLOYEE_STATUS</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>PROCESS</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
@@ -715,37 +720,34 @@
       <c r="AD2" t="n">
         <v>0</v>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>P262</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
       <c r="AJ2" t="inlineStr">
         <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -846,37 +848,38 @@
       <c r="AD3" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>P170</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
       <c r="AK3" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -975,37 +978,38 @@
         <v>500</v>
       </c>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr">
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
         <is>
           <t>P170</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
       <c r="AG4" t="inlineStr">
         <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
       <c r="AK4" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1106,37 +1110,38 @@
       <c r="AD5" t="n">
         <v>0</v>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>P138</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="AG5" t="inlineStr">
         <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1237,33 +1242,38 @@
       <c r="AD6" t="n">
         <v>0</v>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>P276</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1364,33 +1374,38 @@
       <c r="AD7" t="n">
         <v>0</v>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>P276</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr">
         <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1491,37 +1506,38 @@
       <c r="AD8" t="n">
         <v>0</v>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>P243</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1622,37 +1638,38 @@
       <c r="AD9" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
         <is>
           <t>P243</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1751,37 +1768,38 @@
         <v>700</v>
       </c>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
         <is>
           <t>P243</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1882,37 +1900,38 @@
       <c r="AD11" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>P111</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="AG11" t="inlineStr">
         <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2013,37 +2032,38 @@
       <c r="AD12" t="n">
         <v>0</v>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>P124</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="AG12" t="inlineStr">
         <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
       <c r="AK12" t="inlineStr">
+        <is>
+          <t>L&amp;T</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -2144,37 +2164,38 @@
       <c r="AD13" t="n">
         <v>0</v>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>P124</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="AG13" t="inlineStr">
         <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
       <c r="AK13" t="inlineStr">
+        <is>
+          <t>L&amp;T</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -2275,39 +2296,40 @@
       <c r="AD14" t="n">
         <v>0</v>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
         <is>
           <t>P271</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>O239</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AI14" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>FULLERTON</t>
-        </is>
-      </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -2406,39 +2428,40 @@
       <c r="AD15" t="n">
         <v>0</v>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
         <is>
           <t>P112</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="AG15" t="inlineStr">
         <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AI15" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>HL</t>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -2537,39 +2560,40 @@
       <c r="AD16" t="n">
         <v>0</v>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
         <is>
           <t>P112</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="AG16" t="inlineStr">
         <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
+      <c r="AI16" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>HL</t>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -2668,37 +2692,38 @@
       <c r="AD17" t="n">
         <v>0</v>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
         <is>
           <t>P274</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
+      <c r="AI17" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
       <c r="AJ17" t="inlineStr">
         <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -2799,37 +2824,38 @@
       <c r="AD18" t="n">
         <v>0</v>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
         <is>
           <t>P257</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="AI18" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -2930,37 +2956,38 @@
       <c r="AD19" t="n">
         <v>0</v>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr">
         <is>
           <t>P117</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="AG19" t="inlineStr">
         <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AI19" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -3059,37 +3086,38 @@
         <v>300</v>
       </c>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr">
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
         <is>
           <t>P117</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="AG20" t="inlineStr">
         <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH20" t="inlineStr">
+      <c r="AI20" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -3190,37 +3218,38 @@
       <c r="AD21" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr">
         <is>
           <t>P273</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="AG21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH21" t="inlineStr">
+      <c r="AI21" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -3321,37 +3350,38 @@
       <c r="AD22" t="n">
         <v>0</v>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
         <is>
           <t>P273</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="AG22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
+      <c r="AI22" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -3452,37 +3482,38 @@
       <c r="AD23" t="n">
         <v>0</v>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr">
         <is>
           <t>P241</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="AG23" t="inlineStr">
         <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH23" t="inlineStr">
+      <c r="AI23" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
       <c r="AK23" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -3581,37 +3612,38 @@
         <v>200</v>
       </c>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr">
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr">
         <is>
           <t>P241</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="AG24" t="inlineStr">
         <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH24" t="inlineStr">
+      <c r="AI24" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr">
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
       <c r="AK24" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -3712,39 +3744,40 @@
       <c r="AD25" t="n">
         <v>0</v>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr">
         <is>
           <t>P255</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>O239</t>
         </is>
       </c>
-      <c r="AG25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH25" t="inlineStr">
+      <c r="AI25" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr">
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>FULLERTON</t>
         </is>
       </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>FR</t>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
         </is>
       </c>
     </row>
@@ -3843,37 +3876,38 @@
       <c r="AD26" t="n">
         <v>1500</v>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr">
         <is>
           <t>P248</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AG26" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="AG26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH26" t="inlineStr">
+      <c r="AI26" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr">
+      <c r="AJ26" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AK26" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK26" t="inlineStr">
+      <c r="AL26" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -3972,37 +4006,38 @@
         <v>100</v>
       </c>
       <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr">
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr">
         <is>
           <t>P248</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AG27" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="AG27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH27" t="inlineStr">
+      <c r="AI27" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr">
+      <c r="AJ27" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK27" t="inlineStr">
+      <c r="AL27" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -4103,37 +4138,38 @@
       <c r="AD28" t="n">
         <v>5000</v>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr">
         <is>
           <t>P261</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="AG28" t="inlineStr">
         <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH28" t="inlineStr">
+      <c r="AI28" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI28" t="inlineStr">
+      <c r="AJ28" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK28" t="inlineStr">
+      <c r="AL28" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -4234,37 +4270,38 @@
       <c r="AD29" t="n">
         <v>0</v>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr">
         <is>
           <t>P084</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="AG29" t="inlineStr">
         <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH29" t="inlineStr">
+      <c r="AI29" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI29" t="inlineStr">
+      <c r="AJ29" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AK29" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK29" t="inlineStr">
+      <c r="AL29" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -4365,37 +4402,38 @@
       <c r="AD30" t="n">
         <v>0</v>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr">
         <is>
           <t>P126</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="AG30" t="inlineStr">
         <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH30" t="inlineStr">
+      <c r="AI30" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI30" t="inlineStr">
+      <c r="AJ30" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ30" t="inlineStr">
+      <c r="AK30" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK30" t="inlineStr">
+      <c r="AL30" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -4496,37 +4534,38 @@
       <c r="AD31" t="n">
         <v>0</v>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr">
         <is>
           <t>P270</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="AG31" t="inlineStr">
         <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH31" t="inlineStr">
+      <c r="AI31" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI31" t="inlineStr">
+      <c r="AJ31" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
+      <c r="AK31" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK31" t="inlineStr">
+      <c r="AL31" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
